--- a/data/georgia_census/shida-qartli/kaspi/healthcare_staff.xlsx
+++ b/data/georgia_census/shida-qartli/kaspi/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0EEE4C-C4B0-4453-96FD-DAAD731545A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9672A111-2317-4F20-AB86-9A5A2EF6F1D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAF777F-57BF-4A7D-B98F-13C49A00357F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07760DF6-4814-4E40-AEBF-F345677ED128}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D08F072-29DF-4BC5-9CF9-DD39F13564A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C642BF-1921-4CF3-8FF0-4C880716F996}"/>
 </file>